--- a/biology/Médecine/Suture_B-Lynch/Suture_B-Lynch.xlsx
+++ b/biology/Médecine/Suture_B-Lynch/Suture_B-Lynch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La suture B-Lynch ou procédure B-Lynch est une forme de suture de compression utilisée en gynécologie. Elle est utilisée pour comprimer mécaniquement un utérus atone souffrant d'une hémorragie de la délivrance sévère. Elle a été développée par Christopher B-Lynch (de son vrai nom Christopher Balogun-Lynch), un chirurgien gynécologue et obstétricien consultant basé à l'hôpital général de Milton Keynes, au Royaume-Uni[1], né en 1947 en Sierra Leone[2].
-Cette technique a été décrite pour la première fois en 1997[3],[4]. Elle permet d'arrêter une hémorragie de la délivrance sans avoir besoin de recourir à une opération de chirurgie pelvienne et tout en préservant potentiellement la fertilité de la patiente[5]. Elle est considérée comme « la meilleure approche chirurgicale pour contrôler une hémorragie de la délivrance atonique, car elle aide à préserver l'intégrité anatomique de l'utérus[6]. »
-Une suture avec des fils résorbables peut être laissée sur place, et ne générerait pas de problèmes avec les grossesses futures[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La suture B-Lynch ou procédure B-Lynch est une forme de suture de compression utilisée en gynécologie. Elle est utilisée pour comprimer mécaniquement un utérus atone souffrant d'une hémorragie de la délivrance sévère. Elle a été développée par Christopher B-Lynch (de son vrai nom Christopher Balogun-Lynch), un chirurgien gynécologue et obstétricien consultant basé à l'hôpital général de Milton Keynes, au Royaume-Uni, né en 1947 en Sierra Leone.
+Cette technique a été décrite pour la première fois en 1997,. Elle permet d'arrêter une hémorragie de la délivrance sans avoir besoin de recourir à une opération de chirurgie pelvienne et tout en préservant potentiellement la fertilité de la patiente. Elle est considérée comme « la meilleure approche chirurgicale pour contrôler une hémorragie de la délivrance atonique, car elle aide à préserver l'intégrité anatomique de l'utérus. »
+Une suture avec des fils résorbables peut être laissée sur place, et ne générerait pas de problèmes avec les grossesses futures.
 </t>
         </is>
       </c>
